--- a/team_specific_matrix/Central Conn. St._B.xlsx
+++ b/team_specific_matrix/Central Conn. St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2275132275132275</v>
+        <v>0.2386831275720165</v>
       </c>
       <c r="C2">
-        <v>0.5079365079365079</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02116402116402116</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1693121693121693</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07407407407407407</v>
+        <v>0.08230452674897119</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02150537634408602</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C3">
-        <v>0.01075268817204301</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03225806451612903</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7096774193548387</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2258064516129032</v>
+        <v>0.226890756302521</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07857142857142857</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07857142857142857</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02142857142857143</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1357142857142857</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R6">
-        <v>0.1071428571428571</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
-        <v>0.3928571428571428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08391608391608392</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006993006993006993</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05594405594405594</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2027972027972028</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S7">
-        <v>0.4055944055944056</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07309941520467836</v>
+        <v>0.07399103139013453</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02046783625730994</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06432748538011696</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09649122807017543</v>
+        <v>0.08744394618834081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1871345029239766</v>
+        <v>0.1883408071748879</v>
       </c>
       <c r="R8">
-        <v>0.07894736842105263</v>
+        <v>0.08295964125560538</v>
       </c>
       <c r="S8">
-        <v>0.47953216374269</v>
+        <v>0.4798206278026906</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06201550387596899</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007751937984496124</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1007751937984496</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02325581395348837</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2093023255813954</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="R9">
-        <v>0.1472868217054264</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="S9">
-        <v>0.4031007751937984</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09830508474576272</v>
+        <v>0.09819819819819819</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0135593220338983</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E10">
-        <v>0.001129943502824859</v>
+        <v>0.0009009009009009009</v>
       </c>
       <c r="F10">
-        <v>0.05988700564971752</v>
+        <v>0.05765765765765766</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1129943502824859</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.005649717514124294</v>
+        <v>0.006306306306306306</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2146892655367232</v>
+        <v>0.2135135135135135</v>
       </c>
       <c r="R10">
-        <v>0.0768361581920904</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="S10">
-        <v>0.4169491525423729</v>
+        <v>0.4117117117117117</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.162280701754386</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07456140350877193</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="K11">
-        <v>0.2324561403508772</v>
+        <v>0.2385964912280702</v>
       </c>
       <c r="L11">
-        <v>0.5219298245614035</v>
+        <v>0.5017543859649123</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008771929824561403</v>
+        <v>0.007017543859649123</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7627118644067796</v>
+        <v>0.7762237762237763</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.211864406779661</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02542372881355932</v>
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8461538461538461</v>
+        <v>0.84375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01428571428571429</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2214285714285714</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I15">
-        <v>0.06428571428571428</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="J15">
-        <v>0.3928571428571428</v>
+        <v>0.4076086956521739</v>
       </c>
       <c r="K15">
-        <v>0.07857142857142857</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04285714285714286</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1857142857142857</v>
+        <v>0.1847826086956522</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00909090909090909</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.07857142857142857</v>
       </c>
       <c r="J16">
-        <v>0.4272727272727272</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K16">
-        <v>0.06363636363636363</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02727272727272727</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="O16">
-        <v>0.07272727272727272</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1272727272727273</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00911854103343465</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1914893617021277</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="I17">
-        <v>0.0851063829787234</v>
+        <v>0.08208955223880597</v>
       </c>
       <c r="J17">
-        <v>0.4468085106382979</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="K17">
-        <v>0.0911854103343465</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0060790273556231</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08206686930091185</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08814589665653495</v>
+        <v>0.0945273631840796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02097902097902098</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1538461538461539</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I18">
-        <v>0.06293706293706294</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="J18">
-        <v>0.4475524475524476</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03496503496503497</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06993006993006994</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1188811188811189</v>
+        <v>0.1404494382022472</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01304347826086956</v>
+        <v>0.01279863481228669</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.225</v>
+        <v>0.2363481228668942</v>
       </c>
       <c r="I19">
-        <v>0.08043478260869565</v>
+        <v>0.07337883959044368</v>
       </c>
       <c r="J19">
-        <v>0.3641304347826087</v>
+        <v>0.3686006825938566</v>
       </c>
       <c r="K19">
-        <v>0.1217391304347826</v>
+        <v>0.113481228668942</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01739130434782609</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0641304347826087</v>
+        <v>0.06655290102389079</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1141304347826087</v>
+        <v>0.1117747440273038</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Central Conn. St._B.xlsx
+++ b/team_specific_matrix/Central Conn. St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2386831275720165</v>
+        <v>0.2434456928838951</v>
       </c>
       <c r="C2">
-        <v>0.4938271604938271</v>
+        <v>0.4868913857677903</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0205761316872428</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1646090534979424</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08230452674897119</v>
+        <v>0.08239700374531835</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01680672268907563</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C3">
-        <v>0.02521008403361345</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02521008403361345</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7054263565891473</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.226890756302521</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6551724137931034</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08235294117647059</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07647058823529412</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02352941176470588</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.4064171122994653</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07777777777777778</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005555555555555556</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04444444444444445</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1611111111111111</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1722222222222222</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="R7">
-        <v>0.09444444444444444</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4433497536945813</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07399103139013453</v>
+        <v>0.07630522088353414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02017937219730942</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06278026905829596</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08744394618834081</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004484304932735426</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1883408071748879</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="R8">
-        <v>0.08295964125560538</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="S8">
-        <v>0.4798206278026906</v>
+        <v>0.4859437751004016</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07142857142857142</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01948051948051948</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04545454545454546</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09740259740259741</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01948051948051948</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2012987012987013</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="R9">
-        <v>0.1363636363636364</v>
+        <v>0.1292134831460674</v>
       </c>
       <c r="S9">
-        <v>0.4090909090909091</v>
+        <v>0.3932584269662922</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09819819819819819</v>
+        <v>0.09289176090468497</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01621621621621622</v>
+        <v>0.01534733441033926</v>
       </c>
       <c r="E10">
-        <v>0.0009009009009009009</v>
+        <v>0.0008077544426494346</v>
       </c>
       <c r="F10">
-        <v>0.05765765765765766</v>
+        <v>0.05654281098546042</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189189189189189</v>
+        <v>0.1203554119547657</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006306306306306306</v>
+        <v>0.005654281098546042</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2135135135135135</v>
+        <v>0.2205169628432956</v>
       </c>
       <c r="R10">
-        <v>0.07657657657657657</v>
+        <v>0.07350565428109855</v>
       </c>
       <c r="S10">
-        <v>0.4117117117117117</v>
+        <v>0.4143780290791599</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1684210526315789</v>
+        <v>0.1615853658536585</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08421052631578947</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K11">
-        <v>0.2385964912280702</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L11">
-        <v>0.5017543859649123</v>
+        <v>0.4908536585365854</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007017543859649123</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7762237762237763</v>
+        <v>0.7839506172839507</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1888111888111888</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K12">
-        <v>0.01398601398601399</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02097902097902098</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.84375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.125</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0108695652173913</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2173913043478261</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I15">
-        <v>0.05978260869565218</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="J15">
-        <v>0.4076086956521739</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="K15">
-        <v>0.07065217391304347</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005434782608695652</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1847826086956522</v>
+        <v>0.1767676767676768</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02857142857142857</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.2026143790849673</v>
       </c>
       <c r="I16">
-        <v>0.07857142857142857</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="J16">
-        <v>0.3928571428571428</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="K16">
-        <v>0.06428571428571428</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02142857142857143</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N16">
-        <v>0.007142857142857143</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="O16">
-        <v>0.09285714285714286</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007462686567164179</v>
+        <v>0.008676789587852495</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1940298507462687</v>
+        <v>0.193058568329718</v>
       </c>
       <c r="I17">
-        <v>0.08208955223880597</v>
+        <v>0.08459869848156182</v>
       </c>
       <c r="J17">
-        <v>0.4402985074626866</v>
+        <v>0.4273318872017354</v>
       </c>
       <c r="K17">
-        <v>0.0945273631840796</v>
+        <v>0.09544468546637744</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007462686567164179</v>
+        <v>0.008676789587852495</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07960199004975124</v>
+        <v>0.07592190889370933</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0945273631840796</v>
+        <v>0.1062906724511931</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02808988764044944</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1573033707865168</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="I18">
-        <v>0.08426966292134831</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="J18">
-        <v>0.4044943820224719</v>
+        <v>0.4136125654450262</v>
       </c>
       <c r="K18">
-        <v>0.0898876404494382</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02808988764044944</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06741573033707865</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1404494382022472</v>
+        <v>0.1361256544502618</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01279863481228669</v>
+        <v>0.01370906321401371</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2363481228668942</v>
+        <v>0.2368621477532369</v>
       </c>
       <c r="I19">
-        <v>0.07337883959044368</v>
+        <v>0.0753998476770754</v>
       </c>
       <c r="J19">
-        <v>0.3686006825938566</v>
+        <v>0.3655750190403656</v>
       </c>
       <c r="K19">
-        <v>0.113481228668942</v>
+        <v>0.1172886519421173</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01706484641638225</v>
+        <v>0.01675552170601675</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06655290102389079</v>
+        <v>0.06549885757806551</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1117747440273038</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
   </sheetData>
